--- a/backend/bookings.xlsx
+++ b/backend/bookings.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -979,9 +979,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>هدىببب</v>
+      </c>
+      <c r="B19" t="str">
+        <v>0505050</v>
+      </c>
+      <c r="C19" t="str">
+        <v>الرياض</v>
+      </c>
+      <c r="D19" t="str">
+        <v>تويوتا</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2005</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2024-11-12</v>
+      </c>
+      <c r="G19" t="str">
+        <v>07:14</v>
+      </c>
+      <c r="H19" t="str">
+        <v>سي</v>
+      </c>
+      <c r="I19" t="str">
+        <v>فضية</v>
+      </c>
+      <c r="J19">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J18"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J19"/>
   </ignoredErrors>
 </worksheet>
 </file>